--- a/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
+++ b/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
@@ -539,11 +539,10 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"616fac86-19ac-40a2-85bb-15d517e1076f" = Workspaces{[workspaceId="616fac86-19ac-40a2-85bb-15d517e1076f"]}[Data],
-    #"a025ea09-ff3a-40c4-9033-a14f69c30f0a" = #"616fac86-19ac-40a2-85bb-15d517e1076f"{[dataflowId="a025ea09-ff3a-40c4-9033-a14f69c30f0a"]}[Data],
-    #"financials (2)_" = #"a025ea09-ff3a-40c4-9033-a14f69c30f0a"{[entity="financials (2)",version=""]}[Data]
-in
-    #"financials (2)_"</t>
+          <t xml:space="preserve">1. #"616fac86-19ac-40a2-85bb-15d517e1076f" = Workspaces{[workspaceId="616fac86-19ac-40a2-85bb-15d517e1076f"]}[Data],
+2. #"a025ea09-ff3a-40c4-9033-a14f69c30f0a" = #"616fac86-19ac-40a2-85bb-15d517e1076f"{[dataflowId="a025ea09-ff3a-40c4-9033-a14f69c30f0a"]}[Data],
+3. #"financials (2)_" = #"a025ea09-ff3a-40c4-9033-a14f69c30f0a"{[entity="financials (2)",version=""]}[Data]
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
+++ b/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
@@ -133,15 +133,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +476,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,10 +506,15 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -534,10 +541,15 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>financials (2)_</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"616fac86-19ac-40a2-85bb-15d517e1076f" = Workspaces{[workspaceId="616fac86-19ac-40a2-85bb-15d517e1076f"]}[Data],
 2. #"a025ea09-ff3a-40c4-9033-a14f69c30f0a" = #"616fac86-19ac-40a2-85bb-15d517e1076f"{[dataflowId="a025ea09-ff3a-40c4-9033-a14f69c30f0a"]}[Data],

--- a/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
+++ b/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:H2" headerRowCount="1">
+  <autoFilter ref="A1:H2"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -143,6 +143,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +482,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,6 +521,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -555,6 +562,11 @@
 2. #"a025ea09-ff3a-40c4-9033-a14f69c30f0a" = #"616fac86-19ac-40a2-85bb-15d517e1076f"{[dataflowId="a025ea09-ff3a-40c4-9033-a14f69c30f0a"]}[Data],
 3. #"financials (2)_" = #"a025ea09-ff3a-40c4-9033-a14f69c30f0a"{[entity="financials (2)",version=""]}[Data]
 </t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>This statement is referring to a particular set of data within a workspace. The starting point is the "Workspaces" Source and then the statement progresses to finding an individual workspace ("616fac86-19ac-40a2-85bb-15d517e1076f"), a dataflow from that workspace ("a025ea09-ff3a-40c4-9033-a14f69c30f0a"), and the particular entity and version of that dataflow ("financials (2)", ""). At the end, the statement is referring to the Data found in this particular entity/version of the dataflow.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
+++ b/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This statement is referring to a particular set of data within a workspace. The starting point is the "Workspaces" Source and then the statement progresses to finding an individual workspace ("616fac86-19ac-40a2-85bb-15d517e1076f"), a dataflow from that workspace ("a025ea09-ff3a-40c4-9033-a14f69c30f0a"), and the particular entity and version of that dataflow ("financials (2)", ""). At the end, the statement is referring to the Data found in this particular entity/version of the dataflow.</t>
+          <t>This sentence is describing how to access specific data in a data workspace. It is saying that within a given workspace there is a dataflow with a specific ID, and that within that dataflow there is an entity called "financials (2)" which can be accessed directly.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
+++ b/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This sentence is describing how to access specific data in a data workspace. It is saying that within a given workspace there is a dataflow with a specific ID, and that within that dataflow there is an entity called "financials (2)" which can be accessed directly.</t>
+          <t>This statement is referencing a specific set of data located in a workspace, identified by its workspace ID, dataflow ID, and entity name. The data can be retrieved by referencing its workspace ID of "616fac86-19ac-40a2-85bb-15d517e1076f", dataflow ID of "a025ea09-ff3a-40c4-9033-a14f69c30f0a" and entity name of "financials (2)".</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
+++ b/EXCEL Output/ASSIGNMENT_EMP0222_DATAFLOW.xlsx
@@ -479,7 +479,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -566,7 +566,10 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This statement is referencing a specific set of data located in a workspace, identified by its workspace ID, dataflow ID, and entity name. The data can be retrieved by referencing its workspace ID of "616fac86-19ac-40a2-85bb-15d517e1076f", dataflow ID of "a025ea09-ff3a-40c4-9033-a14f69c30f0a" and entity name of "financials (2)".</t>
+          <t xml:space="preserve">1. This is the unique ID for a particular workspace that contains associated data.
+2. The dataflowId "a025ea09-ff3a-40c4-9033-a14f69c30f0a" is equal to the id "616fac86-19ac-40a2-85bb-15d517e1076f" when combined with the data in brackets.
+3. "financials (2)" refers to a specific set of financial data identified by the unique identifier "a025ea09-ff3a-40c4-9033-a14f69c30f0a".
+</t>
         </is>
       </c>
     </row>
